--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -17,23 +17,174 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="55">
   <si>
     <t>物资编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>物资尺寸</t>
-  </si>
-  <si>
-    <t>需求时间</t>
+    <t>零件类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术条件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺路线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>单件质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每产品质量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特殊需求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紧急程度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>密级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>合格证</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>配送地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产/进口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一般</t>
+  </si>
+  <si>
+    <t>内部</t>
+  </si>
+  <si>
+    <t>Y</t>
+  </si>
+  <si>
+    <t>天津305</t>
+  </si>
+  <si>
+    <t>国产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>国产</t>
+  </si>
+  <si>
+    <t>eeee</t>
+  </si>
+  <si>
+    <t>ffff</t>
+  </si>
+  <si>
+    <t>用途</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产厂家</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津305</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料牌号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>材料状态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚料规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胚料尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>计量单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求件数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量（重量）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工艺数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路线备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备件数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>定额备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求日期</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3-11-3-(56)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>环氧玻璃布层压板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YS/T212-1994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>δ0.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>300*500</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>无</t>
+    <t>千克</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -41,119 +192,44 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>零件类型</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>产品名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术条件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>工艺路线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>单件质量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每产品质量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中框连接板</t>
-  </si>
-  <si>
-    <t>中框半框环</t>
-  </si>
-  <si>
-    <t>3-11-3-(56)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>53-58-53-(56)</t>
-  </si>
-  <si>
-    <t>YS/T212-1994</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>标准件</t>
-  </si>
-  <si>
-    <t>特殊需求</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紧急程度</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>密级</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>合格证</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>配送地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国产/进口</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一般</t>
-  </si>
-  <si>
-    <t>内部</t>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <t>天津305</t>
-  </si>
-  <si>
-    <t>国产</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>天津305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>国产</t>
-  </si>
-  <si>
-    <t>eeee</t>
-  </si>
-  <si>
-    <t>ffff</t>
-  </si>
-  <si>
-    <t>用途</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生产厂家</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>YY00080081</t>
+  </si>
+  <si>
+    <t>YY00080082</t>
+  </si>
+  <si>
+    <t>YY00080083</t>
+  </si>
+  <si>
+    <t>YY00080084</t>
+  </si>
+  <si>
+    <t>YY00080085</t>
+  </si>
+  <si>
+    <t>啊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>其它</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +241,13 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -187,9 +270,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -484,10 +570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q3"/>
+  <dimension ref="A1:AA9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -501,191 +587,794 @@
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="13.125" customWidth="1"/>
     <col min="9" max="9" width="13.375" customWidth="1"/>
+    <col min="10" max="12" width="7.875" customWidth="1"/>
     <col min="14" max="14" width="7.875" customWidth="1"/>
+    <col min="19" max="19" width="9.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="8.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:27" s="2" customFormat="1">
       <c r="A1" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="B1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C1" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="D1" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="E1" t="s">
+        <v>26</v>
+      </c>
+      <c r="F1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H1" t="s">
+        <v>28</v>
+      </c>
+      <c r="I1" t="s">
+        <v>29</v>
+      </c>
+      <c r="J1" t="s">
+        <v>4</v>
+      </c>
+      <c r="K1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L1" t="s">
-        <v>20</v>
-      </c>
       <c r="M1" t="s">
+        <v>30</v>
+      </c>
+      <c r="N1" t="s">
+        <v>31</v>
+      </c>
+      <c r="O1" t="s">
+        <v>32</v>
+      </c>
+      <c r="P1" t="s">
         <v>33</v>
-      </c>
-      <c r="N1" t="s">
-        <v>21</v>
-      </c>
-      <c r="O1" t="s">
-        <v>22</v>
-      </c>
-      <c r="P1" t="s">
-        <v>23</v>
       </c>
       <c r="Q1" t="s">
         <v>34</v>
       </c>
+      <c r="R1" t="s">
+        <v>35</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="T1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>9</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>11</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:17">
+    <row r="2" spans="1:27">
       <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D2">
+        <v>3240</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>40</v>
+      </c>
+      <c r="G2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I2" t="s">
+        <v>43</v>
+      </c>
+      <c r="J2">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="K2">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2">
+        <v>3</v>
+      </c>
+      <c r="N2">
+        <v>23.09</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2">
+        <v>2</v>
+      </c>
+      <c r="R2" t="s">
+        <v>52</v>
+      </c>
+      <c r="S2" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T2" t="s">
+        <v>37</v>
+      </c>
+      <c r="U2" t="s">
+        <v>12</v>
+      </c>
+      <c r="V2" t="s">
         <v>13</v>
       </c>
-      <c r="B2" t="s">
+      <c r="W2" t="s">
+        <v>18</v>
+      </c>
+      <c r="X2" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z2" t="s">
         <v>16</v>
       </c>
-      <c r="C2" t="s">
+      <c r="AA2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
+      <c r="A3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3">
+        <v>3240</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" t="s">
+        <v>41</v>
+      </c>
+      <c r="H3" t="s">
+        <v>42</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K3">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3">
+        <v>3</v>
+      </c>
+      <c r="N3">
+        <v>23.09</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q3">
+        <v>2</v>
+      </c>
+      <c r="R3" t="s">
+        <v>52</v>
+      </c>
+      <c r="S3" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T3" t="s">
+        <v>37</v>
+      </c>
+      <c r="U3" t="s">
+        <v>12</v>
+      </c>
+      <c r="V3" t="s">
+        <v>13</v>
+      </c>
+      <c r="W3" t="s">
+        <v>19</v>
+      </c>
+      <c r="X3" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="Y3" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z3" t="s">
         <v>17</v>
       </c>
-      <c r="E2" t="s">
+      <c r="AA3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4">
+        <v>3240</v>
+      </c>
+      <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" t="s">
+        <v>42</v>
+      </c>
+      <c r="I4" t="s">
+        <v>43</v>
+      </c>
+      <c r="J4">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="K4">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4">
+        <v>3</v>
+      </c>
+      <c r="N4">
+        <v>23.09</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+      <c r="R4" t="s">
+        <v>52</v>
+      </c>
+      <c r="S4" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T4" t="s">
+        <v>37</v>
+      </c>
+      <c r="U4" t="s">
+        <v>12</v>
+      </c>
+      <c r="V4" t="s">
+        <v>13</v>
+      </c>
+      <c r="W4" t="s">
+        <v>19</v>
+      </c>
+      <c r="X4" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y4" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
+      <c r="A5" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D5">
+        <v>3240</v>
+      </c>
+      <c r="E5">
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G5" t="s">
+        <v>41</v>
+      </c>
+      <c r="H5" t="s">
+        <v>42</v>
+      </c>
+      <c r="I5" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K5">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L5" t="s">
+        <v>47</v>
+      </c>
+      <c r="M5">
+        <v>3</v>
+      </c>
+      <c r="N5">
+        <v>23.09</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q5">
+        <v>2</v>
+      </c>
+      <c r="R5" t="s">
+        <v>52</v>
+      </c>
+      <c r="S5" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T5" t="s">
+        <v>37</v>
+      </c>
+      <c r="U5" t="s">
+        <v>12</v>
+      </c>
+      <c r="V5" t="s">
+        <v>13</v>
+      </c>
+      <c r="W5" t="s">
+        <v>19</v>
+      </c>
+      <c r="X5" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
+      <c r="A6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6">
+        <v>3240</v>
+      </c>
+      <c r="E6">
         <v>5</v>
       </c>
-      <c r="F2">
+      <c r="F6" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" t="s">
+        <v>41</v>
+      </c>
+      <c r="H6" t="s">
+        <v>42</v>
+      </c>
+      <c r="I6" t="s">
+        <v>43</v>
+      </c>
+      <c r="J6">
         <v>7.6950000000000003</v>
       </c>
-      <c r="G2">
-        <v>15.39</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="K6">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L6" t="s">
+        <v>48</v>
+      </c>
+      <c r="M6">
         <v>3</v>
       </c>
-      <c r="I2" s="1">
+      <c r="N6">
+        <v>23.09</v>
+      </c>
+      <c r="O6">
+        <v>1</v>
+      </c>
+      <c r="P6" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q6">
+        <v>2</v>
+      </c>
+      <c r="R6" t="s">
+        <v>52</v>
+      </c>
+      <c r="S6" s="1">
         <v>42984</v>
       </c>
-      <c r="J2" t="s">
-        <v>4</v>
-      </c>
-      <c r="K2" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" t="s">
-        <v>25</v>
-      </c>
-      <c r="M2" t="s">
-        <v>31</v>
-      </c>
-      <c r="N2" t="s">
-        <v>26</v>
-      </c>
-      <c r="O2" t="s">
-        <v>27</v>
-      </c>
-      <c r="P2" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>35</v>
+      <c r="T6" t="s">
+        <v>37</v>
+      </c>
+      <c r="U6" t="s">
+        <v>12</v>
+      </c>
+      <c r="V6" t="s">
+        <v>13</v>
+      </c>
+      <c r="W6" t="s">
+        <v>19</v>
+      </c>
+      <c r="X6" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:17">
-      <c r="A3" t="s">
+    <row r="7" spans="1:27">
+      <c r="A7" t="s">
+        <v>46</v>
+      </c>
+      <c r="B7" t="s">
+        <v>45</v>
+      </c>
+      <c r="C7" t="s">
+        <v>39</v>
+      </c>
+      <c r="D7">
+        <v>3240</v>
+      </c>
+      <c r="E7">
+        <v>6</v>
+      </c>
+      <c r="F7" t="s">
+        <v>40</v>
+      </c>
+      <c r="G7" t="s">
+        <v>41</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7">
+        <v>0.17399999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L7" t="s">
+        <v>49</v>
+      </c>
+      <c r="M7">
+        <v>3</v>
+      </c>
+      <c r="N7">
+        <v>23.09</v>
+      </c>
+      <c r="O7">
+        <v>1</v>
+      </c>
+      <c r="P7" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q7">
+        <v>2</v>
+      </c>
+      <c r="R7" t="s">
+        <v>52</v>
+      </c>
+      <c r="S7" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T7" t="s">
+        <v>37</v>
+      </c>
+      <c r="U7" t="s">
         <v>12</v>
       </c>
-      <c r="B3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C3" t="s">
+      <c r="V7" t="s">
+        <v>13</v>
+      </c>
+      <c r="W7" t="s">
+        <v>19</v>
+      </c>
+      <c r="X7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y7" t="s">
         <v>15</v>
       </c>
-      <c r="D3" t="s">
+      <c r="Z7" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F3">
+      <c r="AA7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
+      <c r="A8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
+        <v>39</v>
+      </c>
+      <c r="D8">
+        <v>3240</v>
+      </c>
+      <c r="E8">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" t="s">
+        <v>41</v>
+      </c>
+      <c r="H8" t="s">
+        <v>42</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J8">
+        <v>7.6950000000000003</v>
+      </c>
+      <c r="K8">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="L8" t="s">
+        <v>50</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>23.09</v>
+      </c>
+      <c r="O8">
+        <v>1</v>
+      </c>
+      <c r="P8" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q8">
+        <v>2</v>
+      </c>
+      <c r="R8" t="s">
+        <v>52</v>
+      </c>
+      <c r="S8" s="1">
+        <v>42984</v>
+      </c>
+      <c r="T8" t="s">
+        <v>37</v>
+      </c>
+      <c r="U8" t="s">
+        <v>12</v>
+      </c>
+      <c r="V8" t="s">
+        <v>13</v>
+      </c>
+      <c r="W8" t="s">
+        <v>19</v>
+      </c>
+      <c r="X8" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9">
+        <v>3240</v>
+      </c>
+      <c r="E9">
+        <v>8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>40</v>
+      </c>
+      <c r="G9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H9" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" t="s">
+        <v>43</v>
+      </c>
+      <c r="J9">
         <v>0.17399999999999999</v>
       </c>
-      <c r="G3">
+      <c r="K9">
         <v>0.34799999999999998</v>
       </c>
-      <c r="H3" t="s">
+      <c r="L9" t="s">
+        <v>51</v>
+      </c>
+      <c r="M9">
         <v>3</v>
       </c>
-      <c r="I3" s="1">
+      <c r="N9">
+        <v>23.09</v>
+      </c>
+      <c r="O9">
+        <v>1</v>
+      </c>
+      <c r="P9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9" t="s">
+        <v>52</v>
+      </c>
+      <c r="S9" s="1">
         <v>42984</v>
       </c>
-      <c r="J3" t="s">
-        <v>4</v>
-      </c>
-      <c r="K3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" t="s">
-        <v>25</v>
-      </c>
-      <c r="M3" t="s">
-        <v>32</v>
-      </c>
-      <c r="N3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O3" t="s">
-        <v>29</v>
-      </c>
-      <c r="P3" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>35</v>
+      <c r="T9" t="s">
+        <v>37</v>
+      </c>
+      <c r="U9" t="s">
+        <v>12</v>
+      </c>
+      <c r="V9" t="s">
+        <v>13</v>
+      </c>
+      <c r="W9" t="s">
+        <v>19</v>
+      </c>
+      <c r="X9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA9" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P3">
+  <dataValidations count="10">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z9">
       <formula1>"国产,进口"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="O2:O3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Y2:Y9">
       <formula1>"天津305"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N2:N3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="X2:X9">
       <formula1>"Y,N"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K2:K3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="U2:U9">
       <formula1>"一般,紧急"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L2:L3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="V2:V9">
       <formula1>"内部,秘密,机密"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M10:M65536 W1:W1048576">
+      <formula1>"eeee,ffff"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D3 A2:A9">
       <formula1>"标准件,成品件,通用件,专用件,组件,其它"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M1:M1048576">
-      <formula1>"eeee,ffff"</formula1>
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="M1">
+      <formula1>0</formula1>
+      <formula2>100000000000000000</formula2>
+    </dataValidation>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M9">
+      <formula1>0</formula1>
+      <formula2>100000000</formula2>
+    </dataValidation>
+    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="N1">
+      <formula1>0</formula1>
+      <formula2>1000000000</formula2>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="227" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
   <si>
     <t>物资编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,9 +79,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>国产</t>
-  </si>
-  <si>
     <t>用途</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -94,10 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天津305</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>胚料规格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -114,10 +107,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>需求数量（重量）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>工艺数量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -178,18 +167,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>急</t>
-  </si>
-  <si>
-    <t>特急</t>
-  </si>
-  <si>
-    <t>弹/箭上</t>
-  </si>
-  <si>
     <t>需求行号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -203,71 +180,22 @@
   </si>
   <si>
     <t>dd</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>3-11-3-(56)</t>
-  </si>
-  <si>
-    <t>环氧玻璃布层压板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>YS/T212-1994</t>
-  </si>
-  <si>
-    <t>δ0.4</t>
-  </si>
-  <si>
-    <t>300*500</t>
-  </si>
-  <si>
-    <t>YY00080080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>千克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>53-58-53-(56)</t>
-  </si>
-  <si>
-    <t>组件</t>
-  </si>
-  <si>
-    <t>通用件</t>
-  </si>
-  <si>
-    <t>dd</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>3-11-3-(56)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>YS/T212-1994</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>千克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>其它</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>53-58-53-(56)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>组件</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -291,17 +219,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>天津306</t>
-  </si>
-  <si>
-    <t>天津307</t>
-  </si>
-  <si>
     <t>产品名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>测试产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>需求数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弹上/箭上</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -309,7 +239,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -320,30 +250,12 @@
     <font>
       <sz val="9"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +268,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -364,26 +276,11 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -392,16 +289,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -696,10 +588,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AF11"/>
+  <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D11"/>
+    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
+      <selection activeCell="R10" sqref="A10:IV17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -714,27 +606,28 @@
     <col min="11" max="11" width="12" customWidth="1"/>
     <col min="12" max="12" width="13.125" customWidth="1"/>
     <col min="13" max="15" width="7.875" customWidth="1"/>
+    <col min="16" max="16" width="9" style="3"/>
     <col min="19" max="19" width="13.375" customWidth="1"/>
-    <col min="20" max="20" width="7.875" customWidth="1"/>
+    <col min="20" max="20" width="26.25" customWidth="1"/>
     <col min="21" max="21" width="9" style="3"/>
     <col min="23" max="23" width="9" style="3"/>
     <col min="25" max="25" width="11.75" style="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="3"/>
-    <col min="30" max="30" width="8.375" customWidth="1"/>
+    <col min="30" max="30" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>68</v>
+        <v>46</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>75</v>
+        <v>39</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>51</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -742,23 +635,23 @@
       <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="5" t="s">
-        <v>69</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="J1" s="5" t="s">
-        <v>72</v>
+      <c r="G1" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="K1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="L1" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -769,35 +662,35 @@
       <c r="O1" t="s">
         <v>0</v>
       </c>
-      <c r="P1" t="s">
-        <v>47</v>
+      <c r="P1" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
       </c>
       <c r="R1" t="s">
+        <v>22</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="V1" t="s">
         <v>24</v>
       </c>
-      <c r="S1" t="s">
-        <v>23</v>
-      </c>
-      <c r="T1" t="s">
+      <c r="W1" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="U1" s="3" t="s">
+      <c r="X1" t="s">
         <v>26</v>
       </c>
-      <c r="V1" t="s">
+      <c r="Y1" s="1" t="s">
         <v>27</v>
-      </c>
-      <c r="W1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="X1" t="s">
-        <v>29</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>30</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>6</v>
@@ -806,7 +699,7 @@
         <v>7</v>
       </c>
       <c r="AB1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AC1" t="s">
         <v>8</v>
@@ -818,7 +711,7 @@
         <v>10</v>
       </c>
       <c r="AF1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:32">
@@ -826,22 +719,22 @@
         <v>38647</v>
       </c>
       <c r="B2" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>76</v>
+        <v>36</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="F2" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H2" s="3">
         <v>3240</v>
@@ -850,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="K2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M2">
         <v>7.6950000000000003</v>
@@ -865,34 +758,34 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O2" t="s">
-        <v>38</v>
-      </c>
-      <c r="P2">
+        <v>35</v>
+      </c>
+      <c r="P2" s="3">
         <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="T2">
-        <v>23.09</v>
+        <v>11</v>
       </c>
       <c r="U2" s="3">
         <v>1</v>
       </c>
-      <c r="V2" s="5" t="s">
-        <v>31</v>
+      <c r="V2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="W2" s="3">
         <v>2</v>
       </c>
-      <c r="X2" s="5" t="s">
-        <v>31</v>
+      <c r="X2" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y2" s="1">
         <v>42984</v>
@@ -904,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC2" t="s">
         <v>13</v>
@@ -916,7 +809,7 @@
         <v>15</v>
       </c>
       <c r="AF2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:32">
@@ -924,22 +817,22 @@
         <v>38648</v>
       </c>
       <c r="B3" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C3" s="3">
         <v>33</v>
       </c>
-      <c r="D3" s="6" t="s">
-        <v>76</v>
+      <c r="D3" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H3" s="3">
         <v>3240</v>
@@ -948,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M3">
         <v>7.6950000000000003</v>
@@ -963,55 +856,58 @@
         <v>15.39</v>
       </c>
       <c r="O3" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P3" s="3">
+        <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T3">
-        <v>23.09</v>
+        <v>11</v>
       </c>
       <c r="U3">
         <v>1</v>
       </c>
-      <c r="V3" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W3" s="6">
-        <v>1</v>
-      </c>
-      <c r="X3" s="5" t="s">
-        <v>31</v>
+      <c r="V3" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W3" s="5">
+        <v>1</v>
+      </c>
+      <c r="X3" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y3" s="1">
         <v>42984</v>
       </c>
       <c r="Z3" s="3" t="s">
-        <v>42</v>
+        <v>11</v>
       </c>
       <c r="AA3" t="s">
         <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC3" t="s">
         <v>13</v>
       </c>
       <c r="AD3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:32">
@@ -1019,22 +915,22 @@
         <v>38649</v>
       </c>
       <c r="B4" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C4" s="3">
         <v>33</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>76</v>
+      <c r="D4" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E4" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F4" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H4" s="3">
         <v>3240</v>
@@ -1043,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M4">
         <v>0.17399999999999999</v>
@@ -1058,55 +954,58 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O4" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P4" s="3">
+        <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T4">
-        <v>0.52</v>
+        <v>11</v>
       </c>
       <c r="U4">
         <v>2</v>
       </c>
-      <c r="V4" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W4" s="6">
-        <v>1</v>
-      </c>
-      <c r="X4" s="5" t="s">
-        <v>31</v>
+      <c r="V4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W4" s="5">
+        <v>1</v>
+      </c>
+      <c r="X4" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y4" s="1">
         <v>42984</v>
       </c>
       <c r="Z4" s="3" t="s">
-        <v>43</v>
+        <v>11</v>
       </c>
       <c r="AA4" t="s">
         <v>12</v>
       </c>
       <c r="AB4" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC4" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AD4" t="s">
         <v>14</v>
       </c>
       <c r="AE4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:32">
@@ -1114,22 +1013,22 @@
         <v>38650</v>
       </c>
       <c r="B5" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C5" s="3">
         <v>33</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>76</v>
+      <c r="D5" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E5" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H5" s="3">
         <v>3240</v>
@@ -1138,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M5">
         <v>7.6950000000000003</v>
@@ -1153,31 +1052,34 @@
         <v>15.39</v>
       </c>
       <c r="O5" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P5" s="3">
+        <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T5">
-        <v>23.09</v>
+        <v>11</v>
       </c>
       <c r="U5">
         <v>3</v>
       </c>
-      <c r="V5" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W5" s="6">
-        <v>1</v>
-      </c>
-      <c r="X5" s="5" t="s">
-        <v>31</v>
+      <c r="V5" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W5" s="5">
+        <v>1</v>
+      </c>
+      <c r="X5" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y5" s="1">
         <v>42984</v>
@@ -1189,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="AB5" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC5" t="s">
         <v>13</v>
@@ -1198,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="AE5" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF5" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6" spans="1:32">
@@ -1209,22 +1111,22 @@
         <v>38659</v>
       </c>
       <c r="B6" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C6" s="3">
         <v>33</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>76</v>
+      <c r="D6" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="F6" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H6" s="3">
         <v>3240</v>
@@ -1233,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K6" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M6">
         <v>7.6950000000000003</v>
@@ -1248,31 +1150,34 @@
         <v>15.39</v>
       </c>
       <c r="O6" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P6" s="3">
+        <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T6">
-        <v>23.09</v>
+        <v>11</v>
       </c>
       <c r="U6">
         <v>1</v>
       </c>
-      <c r="V6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W6" s="6">
-        <v>1</v>
-      </c>
-      <c r="X6" s="5" t="s">
-        <v>31</v>
+      <c r="V6" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W6" s="5">
+        <v>1</v>
+      </c>
+      <c r="X6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y6" s="1">
         <v>42984</v>
@@ -1284,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="AB6" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC6" t="s">
         <v>13</v>
@@ -1293,10 +1198,10 @@
         <v>14</v>
       </c>
       <c r="AE6" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:32">
@@ -1304,22 +1209,22 @@
         <v>38660</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C7" s="3">
         <v>33</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>76</v>
+      <c r="D7" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E7" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="F7" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H7" s="3">
         <v>3240</v>
@@ -1328,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K7" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M7">
         <v>0.17399999999999999</v>
@@ -1343,31 +1248,34 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O7" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P7" s="3">
+        <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T7">
-        <v>0.52</v>
+        <v>11</v>
       </c>
       <c r="U7">
         <v>1</v>
       </c>
-      <c r="V7" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W7" s="6">
-        <v>1</v>
-      </c>
-      <c r="X7" s="5" t="s">
-        <v>31</v>
+      <c r="V7" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W7" s="5">
+        <v>1</v>
+      </c>
+      <c r="X7" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y7" s="1">
         <v>42984</v>
@@ -1379,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="AB7" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC7" t="s">
         <v>13</v>
@@ -1388,10 +1296,10 @@
         <v>14</v>
       </c>
       <c r="AE7" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF7" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:32">
@@ -1399,22 +1307,22 @@
         <v>38673</v>
       </c>
       <c r="B8" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C8" s="3">
         <v>33</v>
       </c>
-      <c r="D8" s="6" t="s">
-        <v>76</v>
+      <c r="D8" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E8" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
       <c r="G8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H8" s="3">
         <v>3240</v>
@@ -1423,13 +1331,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M8">
         <v>7.6950000000000003</v>
@@ -1438,31 +1346,34 @@
         <v>15.39</v>
       </c>
       <c r="O8" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P8" s="3">
+        <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T8">
-        <v>23.09</v>
+        <v>11</v>
       </c>
       <c r="U8">
         <v>1</v>
       </c>
-      <c r="V8" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W8" s="6">
-        <v>1</v>
-      </c>
-      <c r="X8" s="5" t="s">
-        <v>31</v>
+      <c r="V8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W8" s="5">
+        <v>1</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y8" s="1">
         <v>42984</v>
@@ -1474,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="AB8" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC8" t="s">
         <v>13</v>
@@ -1483,10 +1394,10 @@
         <v>14</v>
       </c>
       <c r="AE8" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF8" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:32">
@@ -1494,22 +1405,22 @@
         <v>38676</v>
       </c>
       <c r="B9" t="s">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="C9" s="3">
         <v>33</v>
       </c>
-      <c r="D9" s="6" t="s">
-        <v>76</v>
+      <c r="D9" s="5" t="s">
+        <v>52</v>
       </c>
       <c r="E9" t="s">
-        <v>67</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>45</v>
       </c>
       <c r="G9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="H9" s="3">
         <v>3240</v>
@@ -1518,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="K9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="L9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="M9">
         <v>0.17399999999999999</v>
@@ -1533,31 +1444,34 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="P9" s="3">
+        <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>63</v>
+        <v>44</v>
       </c>
       <c r="T9">
-        <v>0.52</v>
+        <v>11</v>
       </c>
       <c r="U9">
         <v>1</v>
       </c>
-      <c r="V9" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="W9" s="6">
-        <v>1</v>
-      </c>
-      <c r="X9" s="5" t="s">
-        <v>31</v>
+      <c r="V9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="W9" s="5">
+        <v>1</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="Y9" s="1">
         <v>42985</v>
@@ -1569,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="AB9" t="s">
-        <v>44</v>
+        <v>54</v>
       </c>
       <c r="AC9" t="s">
         <v>13</v>
@@ -1578,203 +1492,17 @@
         <v>14</v>
       </c>
       <c r="AE9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AF9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:32" s="7" customFormat="1">
-      <c r="A10" s="6">
-        <v>38673</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C10" s="6">
-        <v>33</v>
-      </c>
-      <c r="D10" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E10" s="6" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="G10" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H10" s="6">
-        <v>3240</v>
-      </c>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L10" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M10" s="6">
-        <v>7.6950000000000003</v>
-      </c>
-      <c r="N10" s="6">
-        <v>15.39</v>
-      </c>
-      <c r="O10" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6">
-        <v>3</v>
-      </c>
-      <c r="S10" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T10" s="6">
-        <v>23.09</v>
-      </c>
-      <c r="U10" s="6"/>
-      <c r="V10" s="6"/>
-      <c r="W10" s="6"/>
-      <c r="X10" s="6"/>
-      <c r="Y10" s="4">
-        <v>42984</v>
-      </c>
-      <c r="Z10" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA10" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB10" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC10" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD10" t="s">
-        <v>73</v>
-      </c>
-      <c r="AE10" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF10" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="7" customFormat="1">
-      <c r="A11" s="6">
-        <v>38676</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C11" s="6">
-        <v>33</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="F11" s="6" t="s">
-        <v>56</v>
-      </c>
-      <c r="G11" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="H11" s="6">
-        <v>3240</v>
-      </c>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="L11" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0.17399999999999999</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0.34799999999999998</v>
-      </c>
-      <c r="O11" s="6" t="s">
-        <v>54</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6">
-        <v>3</v>
-      </c>
-      <c r="S11" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="T11" s="6">
-        <v>0.52</v>
-      </c>
-      <c r="U11" s="6"/>
-      <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-      <c r="X11" s="6"/>
-      <c r="Y11" s="4">
-        <v>42984</v>
-      </c>
-      <c r="Z11" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AA11" t="s">
-        <v>12</v>
-      </c>
-      <c r="AB11" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC11" t="s">
-        <v>13</v>
-      </c>
-      <c r="AD11" t="s">
-        <v>74</v>
-      </c>
-      <c r="AE11" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF11" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="11">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AE2:AE11">
-      <formula1>"国产,进口"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AD2:AD11">
-      <formula1>"天津305"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AC2:AC11">
-      <formula1>"Y,N"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AA2:AA11">
-      <formula1>"内部,秘密,机密"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R10:R65536 AB1 AB12:AB1048576">
+  <dataValidations count="4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB65536 R10:R65534">
       <formula1>"eeee,ffff"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z2:Z11">
-      <formula1>"一般,急,特急"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB2:AB11">
-      <formula1>"弹/箭上,辅料,工装,中间料"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="R1">
       <formula1>0</formula1>
@@ -1784,11 +1512,7 @@
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
-    <dataValidation type="decimal" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="T1">
-      <formula1>0</formula1>
-      <formula2>1000000000</formula2>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3 E2:E9">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
       <formula1>"标准件,成品件,通用件,专用件,组件,其它"</formula1>
     </dataValidation>
   </dataValidations>

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="R10" sqref="A10:IV17"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="X18" sqref="X18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1501,7 +1501,7 @@
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="4">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB65536 R10:R65534">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB65529 R10:R65527">
       <formula1>"eeee,ffff"</formula1>
     </dataValidation>
     <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" sqref="R1">

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="X18" sqref="X18"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O2" sqref="O2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -91,14 +91,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>胚料规格</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>胚料尺寸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>计量单位</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -232,6 +224,14 @@
   </si>
   <si>
     <t>弹上/箭上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坯料规格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坯料尺寸</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="O2" sqref="O2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -618,16 +618,16 @@
   <sheetData>
     <row r="1" spans="1:32" s="2" customFormat="1">
       <c r="A1" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -636,22 +636,22 @@
         <v>2</v>
       </c>
       <c r="G1" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="J1" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>50</v>
-      </c>
       <c r="K1" t="s">
-        <v>19</v>
+        <v>53</v>
       </c>
       <c r="L1" t="s">
-        <v>20</v>
+        <v>54</v>
       </c>
       <c r="M1" t="s">
         <v>3</v>
@@ -663,34 +663,34 @@
         <v>0</v>
       </c>
       <c r="P1" s="3" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="Q1" t="s">
         <v>5</v>
       </c>
       <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>19</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="U1" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="V1" t="s">
         <v>22</v>
       </c>
-      <c r="S1" t="s">
-        <v>21</v>
-      </c>
-      <c r="T1" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="U1" s="3" t="s">
+      <c r="W1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="V1" t="s">
+      <c r="X1" t="s">
         <v>24</v>
       </c>
-      <c r="W1" s="3" t="s">
+      <c r="Y1" s="1" t="s">
         <v>25</v>
-      </c>
-      <c r="X1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>27</v>
       </c>
       <c r="Z1" s="3" t="s">
         <v>6</v>
@@ -719,22 +719,22 @@
         <v>38647</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="G2" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H2" s="3">
         <v>3240</v>
@@ -743,13 +743,13 @@
         <v>1</v>
       </c>
       <c r="J2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" t="s">
+        <v>30</v>
+      </c>
+      <c r="L2" t="s">
         <v>31</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" t="s">
-        <v>33</v>
       </c>
       <c r="M2">
         <v>7.6950000000000003</v>
@@ -758,19 +758,19 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P2" s="3">
         <v>80</v>
       </c>
       <c r="Q2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R2">
         <v>3</v>
       </c>
       <c r="S2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="T2">
         <v>11</v>
@@ -779,13 +779,13 @@
         <v>1</v>
       </c>
       <c r="V2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W2" s="3">
         <v>2</v>
       </c>
       <c r="X2" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y2" s="1">
         <v>42984</v>
@@ -797,7 +797,7 @@
         <v>12</v>
       </c>
       <c r="AB2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC2" t="s">
         <v>13</v>
@@ -817,22 +817,22 @@
         <v>38648</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C3" s="3">
         <v>33</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G3" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H3" s="3">
         <v>3240</v>
@@ -841,13 +841,13 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M3">
         <v>7.6950000000000003</v>
@@ -856,19 +856,19 @@
         <v>15.39</v>
       </c>
       <c r="O3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P3" s="3">
         <v>80</v>
       </c>
       <c r="Q3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R3">
         <v>3</v>
       </c>
       <c r="S3" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T3">
         <v>11</v>
@@ -877,13 +877,13 @@
         <v>1</v>
       </c>
       <c r="V3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W3" s="5">
         <v>1</v>
       </c>
       <c r="X3" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y3" s="1">
         <v>42984</v>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
       <c r="AB3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC3" t="s">
         <v>13</v>
@@ -915,22 +915,22 @@
         <v>38649</v>
       </c>
       <c r="B4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C4" s="3">
         <v>33</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H4" s="3">
         <v>3240</v>
@@ -939,13 +939,13 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M4">
         <v>0.17399999999999999</v>
@@ -954,19 +954,19 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P4" s="3">
         <v>80</v>
       </c>
       <c r="Q4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R4">
         <v>3</v>
       </c>
       <c r="S4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T4">
         <v>11</v>
@@ -975,13 +975,13 @@
         <v>2</v>
       </c>
       <c r="V4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W4" s="5">
         <v>1</v>
       </c>
       <c r="X4" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y4" s="1">
         <v>42984</v>
@@ -993,7 +993,7 @@
         <v>12</v>
       </c>
       <c r="AB4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC4" t="s">
         <v>13</v>
@@ -1013,22 +1013,22 @@
         <v>38650</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C5" s="3">
         <v>33</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E5" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F5" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G5" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H5" s="3">
         <v>3240</v>
@@ -1037,13 +1037,13 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L5" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M5">
         <v>7.6950000000000003</v>
@@ -1052,19 +1052,19 @@
         <v>15.39</v>
       </c>
       <c r="O5" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P5" s="3">
         <v>80</v>
       </c>
       <c r="Q5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R5">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T5">
         <v>11</v>
@@ -1073,13 +1073,13 @@
         <v>3</v>
       </c>
       <c r="V5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W5" s="5">
         <v>1</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y5" s="1">
         <v>42984</v>
@@ -1091,7 +1091,7 @@
         <v>12</v>
       </c>
       <c r="AB5" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC5" t="s">
         <v>13</v>
@@ -1111,22 +1111,22 @@
         <v>38659</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C6" s="3">
         <v>33</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E6" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H6" s="3">
         <v>3240</v>
@@ -1135,13 +1135,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M6">
         <v>7.6950000000000003</v>
@@ -1150,19 +1150,19 @@
         <v>15.39</v>
       </c>
       <c r="O6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P6" s="3">
         <v>80</v>
       </c>
       <c r="Q6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R6">
         <v>3</v>
       </c>
       <c r="S6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T6">
         <v>11</v>
@@ -1171,13 +1171,13 @@
         <v>1</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W6" s="5">
         <v>1</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y6" s="1">
         <v>42984</v>
@@ -1189,7 +1189,7 @@
         <v>12</v>
       </c>
       <c r="AB6" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC6" t="s">
         <v>13</v>
@@ -1209,22 +1209,22 @@
         <v>38660</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C7" s="3">
         <v>33</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F7" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H7" s="3">
         <v>3240</v>
@@ -1233,13 +1233,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M7">
         <v>0.17399999999999999</v>
@@ -1248,19 +1248,19 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P7" s="3">
         <v>80</v>
       </c>
       <c r="Q7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R7">
         <v>3</v>
       </c>
       <c r="S7" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T7">
         <v>11</v>
@@ -1269,13 +1269,13 @@
         <v>1</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W7" s="5">
         <v>1</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y7" s="1">
         <v>42984</v>
@@ -1287,7 +1287,7 @@
         <v>12</v>
       </c>
       <c r="AB7" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC7" t="s">
         <v>13</v>
@@ -1307,22 +1307,22 @@
         <v>38673</v>
       </c>
       <c r="B8" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8" s="3">
         <v>33</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E8" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H8" s="3">
         <v>3240</v>
@@ -1331,13 +1331,13 @@
         <v>1</v>
       </c>
       <c r="J8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L8" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M8">
         <v>7.6950000000000003</v>
@@ -1346,19 +1346,19 @@
         <v>15.39</v>
       </c>
       <c r="O8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P8" s="3">
         <v>80</v>
       </c>
       <c r="Q8" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R8">
         <v>3</v>
       </c>
       <c r="S8" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T8">
         <v>11</v>
@@ -1367,13 +1367,13 @@
         <v>1</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W8" s="5">
         <v>1</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y8" s="1">
         <v>42984</v>
@@ -1385,7 +1385,7 @@
         <v>12</v>
       </c>
       <c r="AB8" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC8" t="s">
         <v>13</v>
@@ -1405,22 +1405,22 @@
         <v>38676</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C9" s="3">
         <v>33</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="E9" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="G9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H9" s="3">
         <v>3240</v>
@@ -1429,13 +1429,13 @@
         <v>1</v>
       </c>
       <c r="J9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="K9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="L9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="M9">
         <v>0.17399999999999999</v>
@@ -1444,19 +1444,19 @@
         <v>0.34799999999999998</v>
       </c>
       <c r="O9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="P9" s="3">
         <v>80</v>
       </c>
       <c r="Q9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="R9">
         <v>3</v>
       </c>
       <c r="S9" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="T9">
         <v>11</v>
@@ -1465,13 +1465,13 @@
         <v>1</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="W9" s="5">
         <v>1</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="Y9" s="1">
         <v>42985</v>
@@ -1483,7 +1483,7 @@
         <v>12</v>
       </c>
       <c r="AB9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="AC9" t="s">
         <v>13</v>

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="56">
   <si>
     <t>物资编码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -232,6 +232,10 @@
   </si>
   <si>
     <t>坯料尺寸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天津305</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -590,8 +594,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AF9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+    <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
+      <selection activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -803,7 +807,7 @@
         <v>13</v>
       </c>
       <c r="AD2" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="AE2" t="s">
         <v>15</v>

--- a/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
+++ b/MMS/Plan/物资导入模板/型号物资导入模板.xlsx
@@ -595,7 +595,7 @@
   <dimension ref="A1:AF9"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="S1" workbookViewId="0">
-      <selection activeCell="AD2" sqref="AD2"/>
+      <selection activeCell="AB5" sqref="AB5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -617,6 +617,7 @@
     <col min="23" max="23" width="9" style="3"/>
     <col min="25" max="25" width="11.75" style="1" customWidth="1"/>
     <col min="26" max="26" width="9" style="3"/>
+    <col min="28" max="28" width="18.5" customWidth="1"/>
     <col min="30" max="30" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1504,7 +1505,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <dataValidations count="4">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="AB10:AB65529 R10:R65527">
       <formula1>"eeee,ffff"</formula1>
     </dataValidation>
@@ -1516,9 +1517,6 @@
       <formula1>0</formula1>
       <formula2>100000000</formula2>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H3">
-      <formula1>"标准件,成品件,通用件,专用件,组件,其它"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
